--- a/data/trans_orig/P44D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6211</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2198</v>
+        <v>2172</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10420</v>
+        <v>10797</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4382536846200698</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1551262755760928</v>
+        <v>0.1532669266312568</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7352714888619272</v>
+        <v>0.7618607234706871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6683</v>
+        <v>6689</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.109345816111536</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3258754819566739</v>
+        <v>0.3261458856046319</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -785,19 +785,19 @@
         <v>8453</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3333</v>
+        <v>3458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14960</v>
+        <v>14627</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2437482287239448</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09609606617208405</v>
+        <v>0.09969745456172417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4313551630747731</v>
+        <v>0.4217669139636066</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>7961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3752</v>
+        <v>3375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11974</v>
+        <v>12000</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5617463153799302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2647285111380727</v>
+        <v>0.2381392765293122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8448737244239071</v>
+        <v>0.8467330733687433</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -835,7 +835,7 @@
         <v>18266</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13826</v>
+        <v>13820</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>20509</v>
@@ -844,7 +844,7 @@
         <v>0.8906541838884641</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6741245180433261</v>
+        <v>0.6738541143953682</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -856,19 +856,19 @@
         <v>26228</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19721</v>
+        <v>20054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31348</v>
+        <v>31223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7562517712760551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5686448369252267</v>
+        <v>0.5782330860363935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9039039338279159</v>
+        <v>0.9003025454382758</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11869</v>
+        <v>12025</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0886024039697301</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3016855440992033</v>
+        <v>0.305649407065896</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>10813</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5450</v>
+        <v>5157</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17408</v>
+        <v>17249</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3196906718015877</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1611210643417381</v>
+        <v>0.1524720461761592</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5146931591826571</v>
+        <v>0.5099643965077029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1002,19 +1002,19 @@
         <v>14299</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7467</v>
+        <v>7691</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24408</v>
+        <v>24657</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1954329851251017</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1020607015416717</v>
+        <v>0.1051256179601114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3336057333017698</v>
+        <v>0.3370055594117969</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>35855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27472</v>
+        <v>27316</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>39341</v>
@@ -1040,7 +1040,7 @@
         <v>0.9113975960302699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6983144559008022</v>
+        <v>0.6943505929341017</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1052,19 +1052,19 @@
         <v>23010</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16415</v>
+        <v>16574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28373</v>
+        <v>28666</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6803093281984123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4853068408173443</v>
+        <v>0.4900356034922972</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8388789356582629</v>
+        <v>0.8475279538238408</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -1073,19 +1073,19 @@
         <v>58865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48756</v>
+        <v>48507</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65697</v>
+        <v>65473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8045670148748983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6663942666982304</v>
+        <v>0.6629944405882032</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8979392984583283</v>
+        <v>0.8948743820398886</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10756</v>
+        <v>10625</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09214096338349768</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3285763422662518</v>
+        <v>0.3245784625266814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8329</v>
+        <v>9149</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08797857551985627</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2494873078953446</v>
+        <v>0.2740274840551183</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1219,19 +1219,19 @@
         <v>5953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1884</v>
+        <v>1198</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14270</v>
+        <v>14982</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09003929902517362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02849403827542279</v>
+        <v>0.01812262550050239</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2158097119548263</v>
+        <v>0.2265825967127952</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>29719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21979</v>
+        <v>22110</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>32735</v>
@@ -1257,7 +1257,7 @@
         <v>0.9078590366165024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6714236577337489</v>
+        <v>0.6754215374733179</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>30449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25057</v>
+        <v>24237</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>33386</v>
@@ -1278,7 +1278,7 @@
         <v>0.9120214244801437</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7505126921046553</v>
+        <v>0.7259725159448819</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1290,19 +1290,19 @@
         <v>60168</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>51851</v>
+        <v>51139</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64237</v>
+        <v>64923</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9099607009748264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7841902880451734</v>
+        <v>0.7734174032872052</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9715059617245773</v>
+        <v>0.9818773744994976</v>
       </c>
     </row>
     <row r="12">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5917</v>
+        <v>6024</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07325117278997159</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2236497687047104</v>
+        <v>0.2276889032616047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1415,19 +1415,19 @@
         <v>3541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8456</v>
+        <v>9363</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1662915661932744</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05075476205310468</v>
+        <v>0.05099021812343853</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3970777883490564</v>
+        <v>0.4396733973811209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1436,19 +1436,19 @@
         <v>5479</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11228</v>
+        <v>11006</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1147413490962514</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04187231751171443</v>
+        <v>0.04184020367929053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2351184855415283</v>
+        <v>0.230475064447008</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>24520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20541</v>
+        <v>20434</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>26458</v>
@@ -1474,7 +1474,7 @@
         <v>0.9267488272100284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7763502312952916</v>
+        <v>0.7723110967383954</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1486,19 +1486,19 @@
         <v>17754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12839</v>
+        <v>11932</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20214</v>
+        <v>20209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8337084338067257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.602922211650944</v>
+        <v>0.560326602618879</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9492452379468953</v>
+        <v>0.9490097818765615</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1507,19 +1507,19 @@
         <v>42274</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36525</v>
+        <v>36747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8852586509037487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7648815144584716</v>
+        <v>0.7695249355529921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9581276824882855</v>
+        <v>0.9581597963207095</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>14651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1299922321537755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1632,19 +1632,19 @@
         <v>19534</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11936</v>
+        <v>11872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29160</v>
+        <v>29899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1791890841173321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1094933886086231</v>
+        <v>0.1089055714289755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2674929413246837</v>
+        <v>0.2742737836556378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1653,19 +1653,19 @@
         <v>34185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22078</v>
+        <v>23457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47531</v>
+        <v>47990</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1541809393775411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09957490247078504</v>
+        <v>0.1057949689035786</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2143753298656221</v>
+        <v>0.2164450712193177</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>98055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87153</v>
+        <v>88481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105057</v>
+        <v>104986</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8700077678462245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7732747756343737</v>
+        <v>0.785061479370511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9321300795305105</v>
+        <v>0.9315006401281303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -1703,19 +1703,19 @@
         <v>89479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79853</v>
+        <v>79114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97077</v>
+        <v>97141</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.820810915882668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7325070586753162</v>
+        <v>0.7257262163443622</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8905066113913769</v>
+        <v>0.8910944285710244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -1724,19 +1724,19 @@
         <v>187534</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>174188</v>
+        <v>173729</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199641</v>
+        <v>198262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8458190606224589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7856246701343778</v>
+        <v>0.7835549287806823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9004250975292143</v>
+        <v>0.8942050310964214</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>4212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1121</v>
+        <v>1055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9631</v>
+        <v>8887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1572880342615185</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04186989197787189</v>
+        <v>0.03937624640744537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3596056058009807</v>
+        <v>0.3318160168054725</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2089,19 +2089,19 @@
         <v>3260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>914</v>
+        <v>988</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6811</v>
+        <v>6789</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2953541818119398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08278710729227667</v>
+        <v>0.08947356520412372</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6170901822206994</v>
+        <v>0.6151206872390804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2110,19 +2110,19 @@
         <v>7472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3110</v>
+        <v>3147</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13195</v>
+        <v>13050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1975809107493777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08224394089078364</v>
+        <v>0.08321568043675759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3489036820852305</v>
+        <v>0.3450591141662243</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>22570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17151</v>
+        <v>17895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25661</v>
+        <v>25727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8427119657384815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6403943941990193</v>
+        <v>0.668183983194527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9581301080221281</v>
+        <v>0.9606237535925547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -2160,19 +2160,19 @@
         <v>7777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4226</v>
+        <v>4248</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10123</v>
+        <v>10049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7046458181880602</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3829098177793004</v>
+        <v>0.3848793127609195</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9172128927077231</v>
+        <v>0.9105264347958762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -2181,19 +2181,19 @@
         <v>30347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24624</v>
+        <v>24769</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34709</v>
+        <v>34672</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8024190892506223</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6510963179147696</v>
+        <v>0.6549408858337756</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9177560591092164</v>
+        <v>0.9167843195632425</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>14263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8338</v>
+        <v>8505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21532</v>
+        <v>21791</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2837600679129047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1658786379878798</v>
+        <v>0.1692013758566551</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.428357249250552</v>
+        <v>0.4335214777952825</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7600</v>
+        <v>7435</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06613270530913952</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2267691313031726</v>
+        <v>0.2218676902288612</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2327,19 +2327,19 @@
         <v>16480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9506</v>
+        <v>10452</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24999</v>
+        <v>25982</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1967052503450769</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1134689216423815</v>
+        <v>0.1247511086538894</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2983943914307138</v>
+        <v>0.3101269439476761</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>36003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28734</v>
+        <v>28475</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41928</v>
+        <v>41761</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7162399320870954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5716427507494483</v>
+        <v>0.5664785222047164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8341213620121202</v>
+        <v>0.8307986241433447</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -2377,7 +2377,7 @@
         <v>31297</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25913</v>
+        <v>26078</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>33513</v>
@@ -2386,7 +2386,7 @@
         <v>0.9338672946908605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7732308686968279</v>
+        <v>0.778132309771137</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2398,19 +2398,19 @@
         <v>67299</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>58780</v>
+        <v>57797</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>74273</v>
+        <v>73327</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8032947496549231</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7016056085692862</v>
+        <v>0.689873056052324</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8865310783576185</v>
+        <v>0.8752488913461107</v>
       </c>
     </row>
     <row r="9">
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7007</v>
+        <v>6577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04652748722749132</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1662774434159846</v>
+        <v>0.1560583045423472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2523,19 +2523,19 @@
         <v>4269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8849</v>
+        <v>9513</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1502361089019419</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0383696825952487</v>
+        <v>0.03789777397884211</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3114156610807047</v>
+        <v>0.3347874430557916</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -2544,19 +2544,19 @@
         <v>6230</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2889</v>
+        <v>2830</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11853</v>
+        <v>12797</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08829193609239418</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04094314634444388</v>
+        <v>0.04010557696339148</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1679896405718306</v>
+        <v>0.181372568979781</v>
       </c>
     </row>
     <row r="11">
@@ -2573,7 +2573,7 @@
         <v>40181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35135</v>
+        <v>35565</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>42142</v>
@@ -2582,7 +2582,7 @@
         <v>0.9534725127725087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8337225565840153</v>
+        <v>0.8439416954576531</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2594,19 +2594,19 @@
         <v>24145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19565</v>
+        <v>18901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27324</v>
+        <v>27337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8497638910980582</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6885843389192953</v>
+        <v>0.6652125569442086</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9616303174047514</v>
+        <v>0.9621022260211578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -2615,19 +2615,19 @@
         <v>64326</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58703</v>
+        <v>57759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>67667</v>
+        <v>67726</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9117080639076058</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8320103594281703</v>
+        <v>0.8186274310202188</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9590568536555563</v>
+        <v>0.9598944230366082</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>2475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>723</v>
+        <v>780</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5974</v>
+        <v>6110</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06451309333725661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01885607152325079</v>
+        <v>0.02033057667168288</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.155706269859004</v>
+        <v>0.1592515644862092</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8028</v>
+        <v>8108</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07419808187063882</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2239847321739404</v>
+        <v>0.2262233593444345</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -2761,19 +2761,19 @@
         <v>5135</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1801</v>
+        <v>1727</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12259</v>
+        <v>11335</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06919066407693746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0242630104026017</v>
+        <v>0.02326692275624823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1651973531087257</v>
+        <v>0.15274982416283</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>35893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32394</v>
+        <v>32258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37645</v>
+        <v>37588</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9354869066627434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.844293730140996</v>
+        <v>0.8407484355137907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9811439284767491</v>
+        <v>0.9796694233283175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -2811,7 +2811,7 @@
         <v>33181</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27812</v>
+        <v>27732</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>35840</v>
@@ -2820,7 +2820,7 @@
         <v>0.9258019181293612</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7760152678260597</v>
+        <v>0.7737766406555637</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2832,19 +2832,19 @@
         <v>69073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61949</v>
+        <v>62873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72407</v>
+        <v>72481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9308093359230626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8348026468912744</v>
+        <v>0.84725017583717</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9757369895973983</v>
+        <v>0.9767330772437518</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>22912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15258</v>
+        <v>14851</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33296</v>
+        <v>31809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.145419255586537</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09684172350371255</v>
+        <v>0.09425805024546974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.211324891134571</v>
+        <v>0.201887416071744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -2957,19 +2957,19 @@
         <v>12404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6661</v>
+        <v>6351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21118</v>
+        <v>21020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1140044804643591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06121745751657975</v>
+        <v>0.05836799519533228</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1940928934743581</v>
+        <v>0.1931950527871795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -2978,19 +2978,19 @@
         <v>35316</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25669</v>
+        <v>24697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48362</v>
+        <v>47816</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1325868921126236</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09636712251178511</v>
+        <v>0.09271824895462728</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1815658055732495</v>
+        <v>0.1795149900409775</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>134646</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>124262</v>
+        <v>125749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>142300</v>
+        <v>142707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.854580744413463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.788675108865429</v>
+        <v>0.7981125839282561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9031582764962874</v>
+        <v>0.9057419497545303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -3028,19 +3028,19 @@
         <v>96400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87686</v>
+        <v>87784</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>102143</v>
+        <v>102453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8859955195356408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8059071065256413</v>
+        <v>0.8068049472128216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9387825424834202</v>
+        <v>0.9416320048046682</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -3049,19 +3049,19 @@
         <v>231046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>218000</v>
+        <v>218546</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240693</v>
+        <v>241665</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8674131078873764</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8184341944267498</v>
+        <v>0.8204850099590225</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9036328774882149</v>
+        <v>0.9072817510453728</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>6876</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3291</v>
+        <v>2469</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13186</v>
+        <v>14567</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0723844717168822</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03464816368537487</v>
+        <v>0.02598834460842219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1388067153964562</v>
+        <v>0.1533440709182487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3414,19 +3414,19 @@
         <v>7267</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4019</v>
+        <v>3916</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12365</v>
+        <v>12010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0940651638029929</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05201646961633578</v>
+        <v>0.05067979648870053</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1600402597591974</v>
+        <v>0.1554459119884161</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -3435,19 +3435,19 @@
         <v>14144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8320</v>
+        <v>8434</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22042</v>
+        <v>22945</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08210873121989898</v>
+        <v>0.08210873121989896</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04829881014289678</v>
+        <v>0.04896101082695632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.127960518527953</v>
+        <v>0.1332022511686967</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>88119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>81809</v>
+        <v>80428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91704</v>
+        <v>92526</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9276155282831179</v>
+        <v>0.9276155282831177</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8611932846035441</v>
+        <v>0.8466559290817512</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9653518363146252</v>
+        <v>0.9740116553915781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -3485,19 +3485,19 @@
         <v>69993</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64895</v>
+        <v>65250</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73241</v>
+        <v>73344</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9059348361970069</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8399597402408026</v>
+        <v>0.8445540880115837</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9479835303836642</v>
+        <v>0.9493202035112994</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>195</v>
@@ -3506,19 +3506,19 @@
         <v>158111</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150213</v>
+        <v>149310</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163935</v>
+        <v>163821</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.917891268780101</v>
+        <v>0.9178912687801012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8720394814720469</v>
+        <v>0.8667977488313032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9517011898571029</v>
+        <v>0.9510389891730437</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>27089</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18658</v>
+        <v>19196</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37415</v>
+        <v>37353</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1399431008188833</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09638682990210334</v>
+        <v>0.09916666814506188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1932868721315252</v>
+        <v>0.192967159253168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3631,19 +3631,19 @@
         <v>13966</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9059</v>
+        <v>8830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20151</v>
+        <v>19770</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07974507083109253</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05172478068218805</v>
+        <v>0.05041791503705311</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1150561688591855</v>
+        <v>0.1128804838235329</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -3652,19 +3652,19 @@
         <v>41055</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31073</v>
+        <v>31812</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53423</v>
+        <v>54342</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.111348706665784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08427526143666714</v>
+        <v>0.08627863028322635</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1448914151271858</v>
+        <v>0.1473860762954578</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>166481</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>156155</v>
+        <v>156217</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>174912</v>
+        <v>174374</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8600568991811167</v>
+        <v>0.8600568991811168</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8067131278684748</v>
+        <v>0.8070328407468316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9036131700978967</v>
+        <v>0.900833331854938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>259</v>
@@ -3702,19 +3702,19 @@
         <v>161172</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>154987</v>
+        <v>155368</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>166079</v>
+        <v>166308</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9202549291689074</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8849438311408144</v>
+        <v>0.887119516176467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9482752193178118</v>
+        <v>0.9495820849629467</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>447</v>
@@ -3723,19 +3723,19 @@
         <v>327653</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>315285</v>
+        <v>314366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>337635</v>
+        <v>336896</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.888651293334216</v>
+        <v>0.8886512933342158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8551085848728142</v>
+        <v>0.8526139237045423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9157247385633329</v>
+        <v>0.9137213697167738</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>16923</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11445</v>
+        <v>10930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24677</v>
+        <v>25148</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09520739174992283</v>
+        <v>0.09520739174992286</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0643896666297966</v>
+        <v>0.06149275797173842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1388334537127864</v>
+        <v>0.1414846547852271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3848,19 +3848,19 @@
         <v>12655</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8349</v>
+        <v>8335</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18392</v>
+        <v>18505</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08032048425798903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0529897034143121</v>
+        <v>0.05289917089681749</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1167327499180921</v>
+        <v>0.1174529042257563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -3869,19 +3869,19 @@
         <v>29578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21750</v>
+        <v>22180</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38270</v>
+        <v>40068</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08821214321368523</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06486803138769506</v>
+        <v>0.06614881678231278</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1141370765724972</v>
+        <v>0.1194984438421074</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>160822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>153068</v>
+        <v>152597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>166300</v>
+        <v>166815</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9047926082500771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8611665462872136</v>
+        <v>0.858515345214773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9356103333702035</v>
+        <v>0.9385072420282616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -3919,19 +3919,19 @@
         <v>144900</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139163</v>
+        <v>139050</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149206</v>
+        <v>149220</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9196795157420109</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8832672500819073</v>
+        <v>0.8825470957742442</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9470102965856875</v>
+        <v>0.9471008291031828</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>492</v>
@@ -3940,19 +3940,19 @@
         <v>305722</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>297030</v>
+        <v>295232</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>313550</v>
+        <v>313120</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9117878567863149</v>
+        <v>0.9117878567863148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8858629234275029</v>
+        <v>0.8805015561578926</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9351319686123049</v>
+        <v>0.9338511832176871</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>5485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2436</v>
+        <v>2567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10967</v>
+        <v>11265</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05093770743997947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02261595553800427</v>
+        <v>0.02383778429373927</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1018386199814278</v>
+        <v>0.1046086595053303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4065,19 +4065,19 @@
         <v>4617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2156</v>
+        <v>2106</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8324</v>
+        <v>8359</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03846224476976561</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01796088350260981</v>
+        <v>0.01754558232097581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06933567475875009</v>
+        <v>0.06962766947512038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -4086,19 +4086,19 @@
         <v>10103</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6161</v>
+        <v>6235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15456</v>
+        <v>16588</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04436147834037563</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02705112659996661</v>
+        <v>0.02737770588278572</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06786599558279729</v>
+        <v>0.07283566348320338</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>102205</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96723</v>
+        <v>96425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105254</v>
+        <v>105123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9490622925600207</v>
+        <v>0.9490622925600204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8981613800185723</v>
+        <v>0.8953913404946694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9773840444619959</v>
+        <v>0.9761622157062605</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>201</v>
@@ -4136,19 +4136,19 @@
         <v>115432</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111725</v>
+        <v>111690</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>117893</v>
+        <v>117943</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9615377552302344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.93066432524125</v>
+        <v>0.9303723305248794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9820391164973903</v>
+        <v>0.9824544176790242</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>348</v>
@@ -4157,19 +4157,19 @@
         <v>217636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>212283</v>
+        <v>211151</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>221578</v>
+        <v>221504</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9556385216596245</v>
+        <v>0.9556385216596244</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9321340044172025</v>
+        <v>0.9271643365167964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9729488734000333</v>
+        <v>0.9726222941172142</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>56373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44137</v>
+        <v>43632</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71434</v>
+        <v>70696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.098210893276025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0768936675397817</v>
+        <v>0.0760141445166426</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1244494632997211</v>
+        <v>0.1231635693200616</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -4282,19 +4282,19 @@
         <v>38506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30281</v>
+        <v>30421</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48752</v>
+        <v>48255</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07265279448669638</v>
+        <v>0.0726527944866964</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05713289448839835</v>
+        <v>0.05739803517462967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09198426324093016</v>
+        <v>0.09104620030575747</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -4303,19 +4303,19 @@
         <v>94879</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79904</v>
+        <v>79773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112011</v>
+        <v>112170</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08594112537005211</v>
+        <v>0.08594112537005212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07237665745842482</v>
+        <v>0.0722577442665724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1014593771050384</v>
+        <v>0.1016033005307841</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>517627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>502566</v>
+        <v>503304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>529863</v>
+        <v>530368</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9017891067239752</v>
+        <v>0.9017891067239751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8755505367002787</v>
+        <v>0.8768364306799385</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9231063324602182</v>
+        <v>0.9239858554833573</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>835</v>
@@ -4353,19 +4353,19 @@
         <v>491496</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>481250</v>
+        <v>481747</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>499721</v>
+        <v>499581</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9273472055133037</v>
+        <v>0.9273472055133039</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.908015736759068</v>
+        <v>0.9089537996942423</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9428671055116009</v>
+        <v>0.9426019648253705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1482</v>
@@ -4374,19 +4374,19 @@
         <v>1009123</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>991991</v>
+        <v>991832</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1024098</v>
+        <v>1024229</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9140588746299478</v>
+        <v>0.9140588746299479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8985406228949615</v>
+        <v>0.898396699469216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9276233425415753</v>
+        <v>0.9277422557334278</v>
       </c>
     </row>
     <row r="18">
